--- a/网站.xlsx
+++ b/网站.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guaishou/Git/PythonProject/UrlCheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199B872-DB3B-AB49-9728-B467DB6C068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3E31E0-4543-9D47-B0CA-B39E3B1B83BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="600" windowWidth="28240" windowHeight="17440" xr2:uid="{D0F17086-EF05-A941-A3BE-F172632AC63F}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
+    <t>网站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,9 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B89C12-1A9E-3849-9B5B-2DD5D061550E}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
